--- a/biology/Biologie cellulaire et moléculaire/Coloration_(microscopie)/Coloration_(microscopie).xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Coloration_(microscopie)/Coloration_(microscopie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La coloration de tissu biologique est souvent nécessaire pour la mise en évidence et l'identification de cellules ou de la structure tissulaire. Certaines colorations sont compatibles avec la vie cellulaire, d'autres nécessitent la fixation des tissus, et parfois la création de coupes histologiques.
 </t>
@@ -511,11 +523,48 @@
           <t>Colorations en microscopie photonique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Pour permettre l'observation des organites en microscopie optique, des substances colorantes sont utilisées.
-Colorations topographiques
-Un colorant consiste souvent en une solution aqueuse contenant un composé portant des groupements chimiques chargés électriquement (fonctions anioniques ou cationiques) et qui peut colorer une ou plusieurs substances de manière stable.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour permettre l'observation des organites en microscopie optique, des substances colorantes sont utilisées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Coloration_(microscopie)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coloration_(microscopie)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Colorations en microscopie photonique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Colorations topographiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un colorant consiste souvent en une solution aqueuse contenant un composé portant des groupements chimiques chargés électriquement (fonctions anioniques ou cationiques) et qui peut colorer une ou plusieurs substances de manière stable.
 Constitué d'un groupement chromophore (couleur) et d'un groupement auxochrome (groupement ionisé): fixation permanente sur des groupements acides ou basiques des constituants cellulaires (à un pH donné).
 Caractéristiques :
 non spécifique d'un type de molécule ;
@@ -523,8 +572,43 @@
 résulte de l'action conjuguée d'un colorant acide (éosine) et d'un colorant basique (hémalun, bleu de méthylène).
 Les substances acides (chargées -) de la cellule sont colorées par un colorant basique (chargé +), les substances basiques (chargées +) de la cellule par un colorant acide (chargé -).[pas clair]
 Cette coloration colore un type de charge. On peut voir la morphologie de la cellule (forme), la position du noyau et sa forme. Ainsi, on peut déterminer le nombre de types cellulaires dans le tissu et la structure de ce tissu (cellules collées ou non).
-Colorations histochimiques
-Réactions rédox agissant sur des macromolécules, renseignent sur la constitution chimique de la cellule.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Coloration_(microscopie)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coloration_(microscopie)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Colorations en microscopie photonique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Colorations histochimiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Réactions rédox agissant sur des macromolécules, renseignent sur la constitution chimique de la cellule.
 Exemples :
 Acide periodique-Schiff (PAS)
 Feulgen-Rosenbeck (ADN – Quantitatif)
@@ -534,120 +618,267 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Coloration_(microscopie)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Coloration_(microscopie)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Coloration_(microscopie)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coloration_(microscopie)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Types de tissu révélés par coloration</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Colorants acides
-Les colorants acides ont une bonne affinité avec les substances alcalines, ils mettent en évidence des tissus basiques donc acidophiles.
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Colorants acides</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les colorants acides ont une bonne affinité avec les substances alcalines, ils mettent en évidence des tissus basiques donc acidophiles.
 éosine (rouge)
 acide picrique (jaune)
 vert rapide
 orange G
 fuchsine acide (rouge)
-érythrosine [rouge]
-Colorants basiques
-Ils mettent en évidence des tissus acides, dits basophiles.
+érythrosine [rouge]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Coloration_(microscopie)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coloration_(microscopie)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Types de tissu révélés par coloration</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Colorants basiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils mettent en évidence des tissus acides, dits basophiles.
 hématoxyline (bleu foncé)
 safranine (orange)
 carmin (rouge)
 bleu de méthylène
 thionine (bleu)
 fuchsine basique (rouge)
-vert d'iode[2] (vert)
-De nombreuses colorations utilisent deux colorants : carmino-vert ou carmin vert d'iode (technique de double coloration en rose et vert)[3], éosine-bleu de méthylène …
-Colorations argentiques
-Certains tissus fixent l'argent. On parle de structures argentaffines ou de structures argyrophiles.
+vert d'iode (vert)
+De nombreuses colorations utilisent deux colorants : carmino-vert ou carmin vert d'iode (technique de double coloration en rose et vert), éosine-bleu de méthylène …
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Coloration_(microscopie)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coloration_(microscopie)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Types de tissu révélés par coloration</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Colorations argentiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Certains tissus fixent l'argent. On parle de structures argentaffines ou de structures argyrophiles.
 coloration de Golgi
-Coloration de Dieterle
-Coloration aux sels de Chrome
-On met ainsi en évidence les tissus chromaffines, comme la médullo-surrénale.
+Coloration de Dieterle</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Coloration_(microscopie)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coloration_(microscopie)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Types de tissu révélés par coloration</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Coloration aux sels de Chrome</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On met ainsi en évidence les tissus chromaffines, comme la médullo-surrénale.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Coloration_(microscopie)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Coloration_(microscopie)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Coloration_(microscopie)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coloration_(microscopie)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Différentes méthodes de coloration</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plusieurs méthodes de coloration ont été mises au point pour révéler certaines structures.
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs méthodes de coloration ont été mises au point pour révéler certaines structures.
 En voici quelques-unes répertoriées dans un tableau :
-Colorations utilisées en microbiologie
-Même s'il ne s'agit pas directement de colorations histologiques, ces méthodes visent à distinguer entre plusieurs types cellulaires. Elles utilisent aussi les mêmes types de colorants :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Coloration_(microscopie)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coloration_(microscopie)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Différentes méthodes de coloration</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Colorations utilisées en microbiologie</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Même s'il ne s'agit pas directement de colorations histologiques, ces méthodes visent à distinguer entre plusieurs types cellulaires. Elles utilisent aussi les mêmes types de colorants :
 la coloration de Gram, pour déterminer des types de cellules procaryotes ;
 la coloration de Ziehl-Neelsen révèle les mycobactéries.</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Coloration_(microscopie)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Coloration_(microscopie)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Coloration_(microscopie)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coloration_(microscopie)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Colorations au microscope électronique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour permettre l'observation des organites en microscopie électronique, des métaux lourds comme le plomb, l'uranium ou le tungstène sont utilisés. Les régions à colorer deviennent sombres car peu d'électrons parviennent à traverser ces métaux.
 </t>
